--- a/Documentation/aux_system/Compass_BOM.xlsx
+++ b/Documentation/aux_system/Compass_BOM.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -557,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,11 +1210,12 @@
     <hyperlink ref="E3" r:id="rId11" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-23-2041"/>
     <hyperlink ref="G4" r:id="rId12"/>
     <hyperlink ref="E4" r:id="rId13" display="http://www.digikey.com/product-detail/en/22-01-2047/WM2013-ND/171993"/>
+    <hyperlink ref="H2" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/aux_system/Compass_BOM.xlsx
+++ b/Documentation/aux_system/Compass_BOM.xlsx
@@ -244,8 +244,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6"/>
+  <sortState ref="A2:K6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="15" name="Description"/>
@@ -552,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,41 +658,39 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5">
-        <v>22232041</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="6">
-        <v>0.37</v>
+        <v>1.95</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.37</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -699,26 +700,26 @@
         <v>22</v>
       </c>
       <c r="E4" s="5">
-        <v>22012047</v>
+        <v>22232041</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="6">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -726,325 +727,115 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="5">
-        <v>22012057</v>
+        <v>22012047</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.28999999999999998</v>
+        <v>36</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.18</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.28999999999999998</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>22012057</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1.95</v>
+        <v>27</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.95</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
         <f>SUM(Table3[Quantity])</f>
         <v>5</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K8" s="8">
         <f>SUM(Table3[Total])</f>
         <v>37.74</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1182,34 +973,21 @@
     <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
-    <hyperlink ref="H5" r:id="rId7"/>
-    <hyperlink ref="H6" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10"/>
-    <hyperlink ref="E3" r:id="rId11" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-23-2041"/>
-    <hyperlink ref="G4" r:id="rId12"/>
-    <hyperlink ref="E4" r:id="rId13" display="http://www.digikey.com/product-detail/en/22-01-2047/WM2013-ND/171993"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="H6" r:id="rId7"/>
+    <hyperlink ref="H3" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId9"/>
+    <hyperlink ref="G4" r:id="rId10"/>
+    <hyperlink ref="E4" r:id="rId11" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-23-2041"/>
+    <hyperlink ref="G5" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13" display="http://www.digikey.com/product-detail/en/22-01-2047/WM2013-ND/171993"/>
     <hyperlink ref="H2" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
